--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H2">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.6250720000000001</v>
       </c>
       <c r="O2">
-        <v>0.479707634607725</v>
+        <v>0.6731047553411441</v>
       </c>
       <c r="P2">
-        <v>0.4797076346077249</v>
+        <v>0.673104755341144</v>
       </c>
       <c r="Q2">
-        <v>10.78209250953956</v>
+        <v>10.09880047003023</v>
       </c>
       <c r="R2">
-        <v>97.03883258585601</v>
+        <v>90.88920423027201</v>
       </c>
       <c r="S2">
-        <v>0.07044182941449556</v>
+        <v>0.1046294897024101</v>
       </c>
       <c r="T2">
-        <v>0.07044182941449556</v>
+        <v>0.1046294897024101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H3">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.225985</v>
+        <v>0.1011893333333333</v>
       </c>
       <c r="N3">
-        <v>0.677955</v>
+        <v>0.303568</v>
       </c>
       <c r="O3">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="P3">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="Q3">
-        <v>11.69429046142667</v>
+        <v>4.904511258040889</v>
       </c>
       <c r="R3">
-        <v>105.24861415284</v>
+        <v>44.14060132236801</v>
       </c>
       <c r="S3">
-        <v>0.07640142329316355</v>
+        <v>0.05081361016007953</v>
       </c>
       <c r="T3">
-        <v>0.07640142329316356</v>
+        <v>0.05081361016007953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>193.575878</v>
       </c>
       <c r="I4">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J4">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,10 +688,10 @@
         <v>0.6250720000000001</v>
       </c>
       <c r="O4">
-        <v>0.479707634607725</v>
+        <v>0.6731047553411441</v>
       </c>
       <c r="P4">
-        <v>0.4797076346077249</v>
+        <v>0.673104755341144</v>
       </c>
       <c r="Q4">
         <v>13.44431791257956</v>
@@ -700,10 +700,10 @@
         <v>120.998861213216</v>
       </c>
       <c r="S4">
-        <v>0.08783474526436046</v>
+        <v>0.1392910105279029</v>
       </c>
       <c r="T4">
-        <v>0.08783474526436048</v>
+        <v>0.1392910105279029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>193.575878</v>
       </c>
       <c r="I5">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J5">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.225985</v>
+        <v>0.1011893333333333</v>
       </c>
       <c r="N5">
-        <v>0.677955</v>
+        <v>0.303568</v>
       </c>
       <c r="O5">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="P5">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="Q5">
-        <v>14.58174826327666</v>
+        <v>6.529271348078222</v>
       </c>
       <c r="R5">
-        <v>131.23573436949</v>
+        <v>58.763442132704</v>
       </c>
       <c r="S5">
-        <v>0.09526583293716481</v>
+        <v>0.06764707663106716</v>
       </c>
       <c r="T5">
-        <v>0.09526583293716484</v>
+        <v>0.06764707663106716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H6">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I6">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J6">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +812,22 @@
         <v>0.6250720000000001</v>
       </c>
       <c r="O6">
-        <v>0.479707634607725</v>
+        <v>0.6731047553411441</v>
       </c>
       <c r="P6">
-        <v>0.4797076346077249</v>
+        <v>0.673104755341144</v>
       </c>
       <c r="Q6">
-        <v>21.26064151322845</v>
+        <v>15.72661080243556</v>
       </c>
       <c r="R6">
-        <v>191.345773619056</v>
+        <v>141.53949722192</v>
       </c>
       <c r="S6">
-        <v>0.1389005410028277</v>
+        <v>0.162936902049944</v>
       </c>
       <c r="T6">
-        <v>0.1389005410028278</v>
+        <v>0.162936902049944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H7">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I7">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J7">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.225985</v>
+        <v>0.1011893333333333</v>
       </c>
       <c r="N7">
-        <v>0.677955</v>
+        <v>0.303568</v>
       </c>
       <c r="O7">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="P7">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="Q7">
-        <v>23.05935670946833</v>
+        <v>7.637673400942223</v>
       </c>
       <c r="R7">
-        <v>207.534210385215</v>
+        <v>68.73906060848</v>
       </c>
       <c r="S7">
-        <v>0.1506519509361674</v>
+        <v>0.07913077130554143</v>
       </c>
       <c r="T7">
-        <v>0.1506519509361675</v>
+        <v>0.07913077130554143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H8">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I8">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J8">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.6250720000000001</v>
       </c>
       <c r="O8">
-        <v>0.479707634607725</v>
+        <v>0.6731047553411441</v>
       </c>
       <c r="P8">
-        <v>0.4797076346077249</v>
+        <v>0.673104755341144</v>
       </c>
       <c r="Q8">
-        <v>10.34294560619911</v>
+        <v>10.66581029592711</v>
       </c>
       <c r="R8">
-        <v>93.08651045579202</v>
+        <v>95.992292663344</v>
       </c>
       <c r="S8">
-        <v>0.06757278416881229</v>
+        <v>0.1105040437067102</v>
       </c>
       <c r="T8">
-        <v>0.06757278416881231</v>
+        <v>0.1105040437067102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H9">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I9">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J9">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.225985</v>
+        <v>0.1011893333333333</v>
       </c>
       <c r="N9">
-        <v>0.677955</v>
+        <v>0.303568</v>
       </c>
       <c r="O9">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="P9">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="Q9">
-        <v>11.21799038902833</v>
+        <v>5.179881197548444</v>
       </c>
       <c r="R9">
-        <v>100.961913501255</v>
+        <v>46.618930777936</v>
       </c>
       <c r="S9">
-        <v>0.07328964805841108</v>
+        <v>0.05366660407114477</v>
       </c>
       <c r="T9">
-        <v>0.07328964805841109</v>
+        <v>0.05366660407114476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H10">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I10">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J10">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1060,22 +1060,22 @@
         <v>0.6250720000000001</v>
       </c>
       <c r="O10">
-        <v>0.479707634607725</v>
+        <v>0.6731047553411441</v>
       </c>
       <c r="P10">
-        <v>0.4797076346077249</v>
+        <v>0.673104755341144</v>
       </c>
       <c r="Q10">
-        <v>17.59586514350934</v>
+        <v>15.03228783953245</v>
       </c>
       <c r="R10">
-        <v>158.362786291584</v>
+        <v>135.290590555792</v>
       </c>
       <c r="S10">
-        <v>0.1149577347572289</v>
+        <v>0.155743309354177</v>
       </c>
       <c r="T10">
-        <v>0.1149577347572289</v>
+        <v>0.1557433093541769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H11">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I11">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J11">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.225985</v>
+        <v>0.1011893333333333</v>
       </c>
       <c r="N11">
-        <v>0.677955</v>
+        <v>0.303568</v>
       </c>
       <c r="O11">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="P11">
-        <v>0.520292365392275</v>
+        <v>0.3268952446588559</v>
       </c>
       <c r="Q11">
-        <v>19.08452906764</v>
+        <v>7.300473473249778</v>
       </c>
       <c r="R11">
-        <v>171.76076160876</v>
+        <v>65.704261259248</v>
       </c>
       <c r="S11">
-        <v>0.1246835101673681</v>
+        <v>0.07563718249102309</v>
       </c>
       <c r="T11">
-        <v>0.1246835101673681</v>
+        <v>0.07563718249102308</v>
       </c>
     </row>
   </sheetData>
